--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_24_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_24_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1716595.538022124</v>
+        <v>1714098.371845258</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -1370,7 +1370,7 @@
         <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>307.7079050020904</v>
@@ -1382,10 +1382,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348609</v>
+        <v>332.2110827772216</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
@@ -1430,7 +1430,7 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
-        <v>199.8651984574941</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X11" t="n">
         <v>322.7559640598765</v>
@@ -1452,7 +1452,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646393</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C13" t="n">
         <v>120.2716844800353</v>
@@ -1534,19 +1534,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G13" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S13" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T13" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U13" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V13" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W13" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X13" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="14">
@@ -1607,10 +1607,10 @@
         <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>141.0565718466864</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>334.9552334536692</v>
@@ -1661,19 +1661,19 @@
         <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
         <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
-        <v>302.2658320988205</v>
+        <v>218.3373217201527</v>
       </c>
       <c r="X14" t="n">
         <v>322.7559640598765</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1746,7 +1746,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609184</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>288.7835684262955</v>
+        <v>288.7835684262954</v>
       </c>
       <c r="C17" t="n">
-        <v>271.3226185338225</v>
+        <v>271.3226185338224</v>
       </c>
       <c r="D17" t="n">
-        <v>260.7327683834979</v>
+        <v>260.7327683834978</v>
       </c>
       <c r="E17" t="n">
-        <v>287.9800968350767</v>
+        <v>287.9800968350766</v>
       </c>
       <c r="F17" t="n">
-        <v>260.6435146316467</v>
+        <v>312.9257725045263</v>
       </c>
       <c r="G17" t="n">
-        <v>316.9714524162684</v>
+        <v>264.6891945433908</v>
       </c>
       <c r="H17" t="n">
-        <v>200.6574911501354</v>
+        <v>200.6574911501353</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>15.23748855099079</v>
+        <v>15.23748855099065</v>
       </c>
       <c r="T17" t="n">
-        <v>109.9676969024351</v>
+        <v>109.967696902435</v>
       </c>
       <c r="U17" t="n">
-        <v>157.0448987217169</v>
+        <v>157.0448987217168</v>
       </c>
       <c r="V17" t="n">
-        <v>233.8019852329498</v>
+        <v>233.8019852329497</v>
       </c>
       <c r="W17" t="n">
-        <v>255.290695480228</v>
+        <v>255.2906954802278</v>
       </c>
       <c r="X17" t="n">
-        <v>275.780827441284</v>
+        <v>275.7808274412839</v>
       </c>
       <c r="Y17" t="n">
-        <v>292.2876654188685</v>
+        <v>292.2876654188684</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247633</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>85.88170694475224</v>
+        <v>85.88170694475212</v>
       </c>
       <c r="C19" t="n">
-        <v>73.29654786144278</v>
+        <v>73.29654786144266</v>
       </c>
       <c r="D19" t="n">
-        <v>54.6651997810273</v>
+        <v>54.66519978102718</v>
       </c>
       <c r="E19" t="n">
-        <v>52.48368940938411</v>
+        <v>52.483689409384</v>
       </c>
       <c r="F19" t="n">
-        <v>51.47077478574619</v>
+        <v>51.47077478574607</v>
       </c>
       <c r="G19" t="n">
-        <v>72.07553502184317</v>
+        <v>72.07553502184305</v>
       </c>
       <c r="H19" t="n">
-        <v>50.80474167713572</v>
+        <v>50.80474167713561</v>
       </c>
       <c r="I19" t="n">
-        <v>2.402147172653052</v>
+        <v>2.402147172652924</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>95.81875209425684</v>
+        <v>95.81875209425672</v>
       </c>
       <c r="T19" t="n">
-        <v>125.5986760389841</v>
+        <v>125.598676038984</v>
       </c>
       <c r="U19" t="n">
-        <v>192.2615649684278</v>
+        <v>192.2615649684277</v>
       </c>
       <c r="V19" t="n">
-        <v>158.1873700866429</v>
+        <v>158.1873700866428</v>
       </c>
       <c r="W19" t="n">
-        <v>192.5727250994059</v>
+        <v>192.5727250994058</v>
       </c>
       <c r="X19" t="n">
-        <v>131.7593821518521</v>
+        <v>131.759382151852</v>
       </c>
       <c r="Y19" t="n">
-        <v>124.6343801149097</v>
+        <v>124.6343801149096</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>288.7835684262955</v>
+        <v>288.7835684262954</v>
       </c>
       <c r="C20" t="n">
-        <v>271.3226185338225</v>
+        <v>271.3226185338224</v>
       </c>
       <c r="D20" t="n">
-        <v>260.7327683834979</v>
+        <v>260.7327683834978</v>
       </c>
       <c r="E20" t="n">
-        <v>287.9800968350767</v>
+        <v>287.9800968350766</v>
       </c>
       <c r="F20" t="n">
-        <v>312.9257725045264</v>
+        <v>312.9257725045263</v>
       </c>
       <c r="G20" t="n">
-        <v>316.9714524162684</v>
+        <v>264.6891945433914</v>
       </c>
       <c r="H20" t="n">
-        <v>200.6574911501355</v>
+        <v>200.6574911501353</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>15.23748855099082</v>
+        <v>15.23748855099063</v>
       </c>
       <c r="T20" t="n">
-        <v>109.9676969024351</v>
+        <v>109.967696902435</v>
       </c>
       <c r="U20" t="n">
-        <v>157.0448987217169</v>
+        <v>157.0448987217168</v>
       </c>
       <c r="V20" t="n">
-        <v>233.8019852329498</v>
+        <v>233.8019852329497</v>
       </c>
       <c r="W20" t="n">
-        <v>203.0084376073482</v>
+        <v>255.2906954802278</v>
       </c>
       <c r="X20" t="n">
-        <v>275.780827441284</v>
+        <v>275.7808274412839</v>
       </c>
       <c r="Y20" t="n">
-        <v>292.2876654188685</v>
+        <v>292.2876654188684</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247588</v>
+        <v>18.81721868247811</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>85.88170694475224</v>
+        <v>85.88170694475212</v>
       </c>
       <c r="C22" t="n">
-        <v>73.29654786144278</v>
+        <v>73.29654786144266</v>
       </c>
       <c r="D22" t="n">
-        <v>54.6651997810273</v>
+        <v>54.66519978102718</v>
       </c>
       <c r="E22" t="n">
-        <v>52.48368940938411</v>
+        <v>52.483689409384</v>
       </c>
       <c r="F22" t="n">
-        <v>51.47077478574619</v>
+        <v>51.47077478574607</v>
       </c>
       <c r="G22" t="n">
-        <v>72.07553502184317</v>
+        <v>72.07553502184305</v>
       </c>
       <c r="H22" t="n">
-        <v>50.80474167713573</v>
+        <v>50.80474167713561</v>
       </c>
       <c r="I22" t="n">
-        <v>2.402147172653059</v>
+        <v>2.40214717265291</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>95.81875209425685</v>
+        <v>95.81875209425672</v>
       </c>
       <c r="T22" t="n">
-        <v>125.5986760389841</v>
+        <v>125.598676038984</v>
       </c>
       <c r="U22" t="n">
-        <v>192.2615649684278</v>
+        <v>192.2615649684277</v>
       </c>
       <c r="V22" t="n">
-        <v>158.1873700866429</v>
+        <v>158.1873700866428</v>
       </c>
       <c r="W22" t="n">
-        <v>192.5727250994059</v>
+        <v>192.5727250994058</v>
       </c>
       <c r="X22" t="n">
-        <v>131.7593821518521</v>
+        <v>131.759382151852</v>
       </c>
       <c r="Y22" t="n">
-        <v>124.6343801149097</v>
+        <v>124.6343801149096</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>288.7835684262955</v>
+        <v>288.7835684262954</v>
       </c>
       <c r="C23" t="n">
-        <v>271.3226185338225</v>
+        <v>271.3226185338224</v>
       </c>
       <c r="D23" t="n">
-        <v>260.7327683834979</v>
+        <v>260.7327683834978</v>
       </c>
       <c r="E23" t="n">
-        <v>287.9800968350767</v>
+        <v>287.9800968350766</v>
       </c>
       <c r="F23" t="n">
-        <v>312.9257725045264</v>
+        <v>271.2006563476342</v>
       </c>
       <c r="G23" t="n">
-        <v>316.9714524162684</v>
+        <v>316.9714524162683</v>
       </c>
       <c r="H23" t="n">
-        <v>200.6574911501354</v>
+        <v>200.6574911501353</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>15.23748855099079</v>
+        <v>15.23748855099066</v>
       </c>
       <c r="T23" t="n">
-        <v>109.9676969024351</v>
+        <v>109.967696902435</v>
       </c>
       <c r="U23" t="n">
-        <v>157.0448987217169</v>
+        <v>157.0448987217168</v>
       </c>
       <c r="V23" t="n">
-        <v>192.0768690760583</v>
+        <v>233.8019852329497</v>
       </c>
       <c r="W23" t="n">
-        <v>255.290695480228</v>
+        <v>255.2906954802278</v>
       </c>
       <c r="X23" t="n">
-        <v>275.780827441284</v>
+        <v>275.7808274412839</v>
       </c>
       <c r="Y23" t="n">
-        <v>292.2876654188685</v>
+        <v>292.2876654188684</v>
       </c>
     </row>
     <row r="24">
@@ -2412,7 +2412,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.5968754185112</v>
       </c>
       <c r="I24" t="n">
         <v>18.81721868247742</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>85.88170694475225</v>
+        <v>85.88170694475212</v>
       </c>
       <c r="C25" t="n">
-        <v>73.29654786144279</v>
+        <v>73.29654786144266</v>
       </c>
       <c r="D25" t="n">
-        <v>54.66519978102731</v>
+        <v>54.66519978102718</v>
       </c>
       <c r="E25" t="n">
-        <v>52.48368940938413</v>
+        <v>52.483689409384</v>
       </c>
       <c r="F25" t="n">
-        <v>51.4707747857462</v>
+        <v>51.47077478574607</v>
       </c>
       <c r="G25" t="n">
-        <v>72.07553502184318</v>
+        <v>72.07553502184305</v>
       </c>
       <c r="H25" t="n">
-        <v>50.80474167713574</v>
+        <v>50.80474167713561</v>
       </c>
       <c r="I25" t="n">
-        <v>2.402147172653052</v>
+        <v>2.402147172652924</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>95.81875209425684</v>
+        <v>95.81875209425672</v>
       </c>
       <c r="T25" t="n">
-        <v>125.5986760389841</v>
+        <v>125.598676038984</v>
       </c>
       <c r="U25" t="n">
-        <v>192.2615649684278</v>
+        <v>192.2615649684277</v>
       </c>
       <c r="V25" t="n">
-        <v>158.1873700866429</v>
+        <v>158.1873700866428</v>
       </c>
       <c r="W25" t="n">
-        <v>192.5727250994059</v>
+        <v>192.5727250994058</v>
       </c>
       <c r="X25" t="n">
-        <v>131.7593821518521</v>
+        <v>131.759382151852</v>
       </c>
       <c r="Y25" t="n">
-        <v>124.6343801149097</v>
+        <v>124.6343801149096</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2558,7 @@
         <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>334.9552334536692</v>
@@ -2567,10 +2567,10 @@
         <v>359.9009091231189</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958328</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U26" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>253.0545870713048</v>
       </c>
       <c r="W26" t="n">
         <v>302.2658320988205</v>
@@ -2621,7 +2621,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
-        <v>325.238356361572</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="27">
@@ -2637,7 +2637,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646386</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -2719,19 +2719,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C29" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>178.7194680135063</v>
       </c>
       <c r="E29" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F29" t="n">
         <v>359.9009091231189</v>
@@ -2807,7 +2807,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958328</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2855,10 +2855,10 @@
         <v>302.2658320988205</v>
       </c>
       <c r="X29" t="n">
-        <v>270.3496422822415</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C31" t="n">
         <v>120.2716844800353</v>
@@ -2956,19 +2956,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145477</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U31" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X31" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>285.8032029865175</v>
+        <v>285.8032029865174</v>
       </c>
       <c r="C32" t="n">
-        <v>268.3422530940445</v>
+        <v>268.3422530940443</v>
       </c>
       <c r="D32" t="n">
-        <v>257.7524029437199</v>
+        <v>257.7524029437197</v>
       </c>
       <c r="E32" t="n">
-        <v>284.9997313952987</v>
+        <v>284.9997313952986</v>
       </c>
       <c r="F32" t="n">
-        <v>309.9454070647483</v>
+        <v>309.9454070647482</v>
       </c>
       <c r="G32" t="n">
-        <v>313.9910869764904</v>
+        <v>313.9910869764902</v>
       </c>
       <c r="H32" t="n">
-        <v>197.6771257103574</v>
+        <v>197.6771257103572</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>12.25712311121276</v>
+        <v>12.25712311121262</v>
       </c>
       <c r="T32" t="n">
-        <v>106.9873314626571</v>
+        <v>106.987331462657</v>
       </c>
       <c r="U32" t="n">
-        <v>154.0645332819389</v>
+        <v>154.0645332819388</v>
       </c>
       <c r="V32" t="n">
-        <v>230.8216197931718</v>
+        <v>230.8216197931717</v>
       </c>
       <c r="W32" t="n">
-        <v>252.3103300404499</v>
+        <v>252.3103300404498</v>
       </c>
       <c r="X32" t="n">
-        <v>272.8004620015059</v>
+        <v>272.8004620015058</v>
       </c>
       <c r="Y32" t="n">
-        <v>289.3072999790905</v>
+        <v>289.3072999790904</v>
       </c>
     </row>
     <row r="33">
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>82.90134150497423</v>
+        <v>82.9013415049741</v>
       </c>
       <c r="C34" t="n">
-        <v>70.31618242166476</v>
+        <v>70.31618242166464</v>
       </c>
       <c r="D34" t="n">
-        <v>51.68483434124929</v>
+        <v>51.68483434124916</v>
       </c>
       <c r="E34" t="n">
-        <v>49.5033239696061</v>
+        <v>49.50332396960597</v>
       </c>
       <c r="F34" t="n">
-        <v>48.49040934596817</v>
+        <v>48.49040934596805</v>
       </c>
       <c r="G34" t="n">
-        <v>69.09516958206515</v>
+        <v>69.09516958206503</v>
       </c>
       <c r="H34" t="n">
-        <v>47.82437623735771</v>
+        <v>47.82437623735758</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>92.83838665447882</v>
+        <v>92.8383866544787</v>
       </c>
       <c r="T34" t="n">
-        <v>122.6183105992061</v>
+        <v>122.618310599206</v>
       </c>
       <c r="U34" t="n">
-        <v>189.2811995286498</v>
+        <v>189.2811995286496</v>
       </c>
       <c r="V34" t="n">
-        <v>155.2070046468649</v>
+        <v>155.2070046468648</v>
       </c>
       <c r="W34" t="n">
-        <v>189.5923596596279</v>
+        <v>189.5923596596278</v>
       </c>
       <c r="X34" t="n">
-        <v>128.7790167120741</v>
+        <v>128.7790167120739</v>
       </c>
       <c r="Y34" t="n">
-        <v>121.6540146751317</v>
+        <v>121.6540146751316</v>
       </c>
     </row>
     <row r="35">
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851092</v>
       </c>
       <c r="I36" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D38" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007095</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U38" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V38" t="n">
         <v>230.06753824203</v>
@@ -3566,7 +3566,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y38" t="n">
         <v>288.5532184279487</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851092</v>
       </c>
       <c r="I39" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383242</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052295</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010748</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846429</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482637</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092327</v>
+        <v>68.34108803092334</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621583</v>
+        <v>47.0702946862159</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333694</v>
+        <v>92.08430510333702</v>
       </c>
       <c r="T40" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V40" t="n">
         <v>154.4529230957231</v>
@@ -3724,10 +3724,10 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D41" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007094</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U41" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W41" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503642</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y41" t="n">
         <v>288.5532184279487</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.1472599538324</v>
+        <v>82.14725995383233</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052294</v>
+        <v>69.56210087052287</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010746</v>
+        <v>50.93075279010739</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846428</v>
+        <v>48.74924241846421</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482635</v>
+        <v>47.73632779482628</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092333</v>
+        <v>68.34108803092326</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621589</v>
+        <v>47.07029468621582</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.084305103337</v>
+        <v>92.08430510333693</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U43" t="n">
-        <v>188.527117977508</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V43" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W43" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D44" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007094</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U44" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V44" t="n">
         <v>230.06753824203</v>
@@ -4040,7 +4040,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X44" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y44" t="n">
         <v>288.5532184279487</v>
@@ -4065,7 +4065,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933836</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>134.9994691657081</v>
@@ -4074,7 +4074,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.1472599538324</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052294</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010746</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846428</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482635</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092333</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621589</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,13 +4183,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.084305103337</v>
+        <v>92.08430510333694</v>
       </c>
       <c r="T46" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U46" t="n">
-        <v>188.527117977508</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V46" t="n">
         <v>154.4529230957231</v>
@@ -4198,10 +4198,10 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
   </sheetData>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1404.8025029403</v>
+        <v>1301.367519464213</v>
       </c>
       <c r="C11" t="n">
-        <v>1083.289618947962</v>
+        <v>1301.367519464213</v>
       </c>
       <c r="D11" t="n">
-        <v>772.4735532892846</v>
+        <v>990.5514538055357</v>
       </c>
       <c r="E11" t="n">
-        <v>434.1349336391136</v>
+        <v>652.2128341553648</v>
       </c>
       <c r="F11" t="n">
-        <v>434.1349336391136</v>
+        <v>652.2128341553648</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H11" t="n">
         <v>66.51211643218342</v>
@@ -5039,19 +5039,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5072,19 +5072,19 @@
         <v>3104.236671416635</v>
       </c>
       <c r="U11" t="n">
-        <v>2898.155827638544</v>
+        <v>2898.155827638545</v>
       </c>
       <c r="V11" t="n">
-        <v>2614.542573243047</v>
+        <v>2614.542573243048</v>
       </c>
       <c r="W11" t="n">
-        <v>2412.658534397094</v>
+        <v>2309.223550921007</v>
       </c>
       <c r="X11" t="n">
-        <v>2086.642409084087</v>
+        <v>1983.207425608</v>
       </c>
       <c r="Y11" t="n">
-        <v>1743.952710056349</v>
+        <v>1640.517726580261</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052942</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254606</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611982</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268784</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F13" t="n">
         <v>335.4089181770414</v>
@@ -5191,40 +5191,40 @@
         <v>215.1557144998336</v>
       </c>
       <c r="H13" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657646</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315256</v>
+        <v>158.140134131526</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328085</v>
+        <v>408.632702332809</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337114</v>
+        <v>771.6978860337117</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
       </c>
       <c r="N13" t="n">
-        <v>1550.274078843938</v>
+        <v>1550.274078843939</v>
       </c>
       <c r="O13" t="n">
-        <v>1896.109063016758</v>
+        <v>1896.109063016759</v>
       </c>
       <c r="P13" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702825</v>
       </c>
       <c r="Q13" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R13" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S13" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T13" t="n">
         <v>1938.403572105846</v>
@@ -5239,10 +5239,10 @@
         <v>1247.547945832862</v>
       </c>
       <c r="X13" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874605</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1850.13806227004</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="C14" t="n">
-        <v>1528.625178277702</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="D14" t="n">
         <v>1386.143792573978</v>
       </c>
       <c r="E14" t="n">
-        <v>1047.805172923807</v>
+        <v>1047.805172923808</v>
       </c>
       <c r="F14" t="n">
-        <v>684.2689010822728</v>
+        <v>684.2689010822733</v>
       </c>
       <c r="G14" t="n">
-        <v>316.6460838753429</v>
+        <v>316.646083875343</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3262.764786084338</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T14" t="n">
-        <v>3104.236671416633</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U14" t="n">
-        <v>3104.236671416633</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V14" t="n">
-        <v>2820.623417021136</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W14" t="n">
-        <v>2515.304394699095</v>
+        <v>2393.999824030772</v>
       </c>
       <c r="X14" t="n">
-        <v>2189.288269386088</v>
+        <v>2067.983698717765</v>
       </c>
       <c r="Y14" t="n">
-        <v>2189.288269386088</v>
+        <v>1725.293999690027</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
@@ -5394,13 +5394,13 @@
         <v>1779.608347199864</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052945</v>
+        <v>759.4662498052938</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254609</v>
+        <v>637.9796998254602</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611985</v>
+        <v>535.3126933611978</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268788</v>
+        <v>434.8492327268781</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770419</v>
+        <v>335.4089181770411</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998333</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657644</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
         <v>158.1401341315256</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337114</v>
+        <v>771.6978860337108</v>
       </c>
       <c r="M16" t="n">
         <v>1162.360316885667</v>
@@ -5455,31 +5455,31 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q16" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R16" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S16" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T16" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U16" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V16" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W16" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X16" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874609</v>
+        <v>893.6650816874602</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1680.964583048797</v>
+        <v>1680.9645830488</v>
       </c>
       <c r="C17" t="n">
-        <v>1406.901332004532</v>
+        <v>1406.901332004535</v>
       </c>
       <c r="D17" t="n">
-        <v>1143.534899293928</v>
+        <v>1143.534899293931</v>
       </c>
       <c r="E17" t="n">
-        <v>852.6459125918304</v>
+        <v>852.6459125918332</v>
       </c>
       <c r="F17" t="n">
-        <v>589.3696351861265</v>
+        <v>536.5592736983722</v>
       </c>
       <c r="G17" t="n">
-        <v>269.1964509272697</v>
+        <v>269.1964509272696</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3310.214419032411</v>
+        <v>3310.214419032413</v>
       </c>
       <c r="T17" t="n">
-        <v>3199.13593731278</v>
+        <v>3199.135937312782</v>
       </c>
       <c r="U17" t="n">
-        <v>3040.504726482763</v>
+        <v>3040.504726482765</v>
       </c>
       <c r="V17" t="n">
-        <v>2804.341105035339</v>
+        <v>2804.341105035341</v>
       </c>
       <c r="W17" t="n">
-        <v>2546.471715661371</v>
+        <v>2546.471715661373</v>
       </c>
       <c r="X17" t="n">
-        <v>2267.905223296438</v>
+        <v>2267.90522329644</v>
       </c>
       <c r="Y17" t="n">
-        <v>1972.665157216773</v>
+        <v>1972.665157216775</v>
       </c>
     </row>
     <row r="18">
@@ -5568,34 +5568,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387292</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064582</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
         <v>765.151745215813</v>
@@ -5610,31 +5610,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
         <v>1109.759191501176</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>427.3188191687817</v>
+        <v>427.3188191687809</v>
       </c>
       <c r="C19" t="n">
-        <v>353.2819021370213</v>
+        <v>353.2819021370207</v>
       </c>
       <c r="D19" t="n">
-        <v>298.0645286208322</v>
+        <v>298.0645286208316</v>
       </c>
       <c r="E19" t="n">
-        <v>245.0507009345856</v>
+        <v>245.0507009345851</v>
       </c>
       <c r="F19" t="n">
-        <v>193.0600193328217</v>
+        <v>193.0600193328214</v>
       </c>
       <c r="G19" t="n">
-        <v>120.2564486036872</v>
+        <v>120.256448603687</v>
       </c>
       <c r="H19" t="n">
-        <v>68.93852771769153</v>
+        <v>68.93852771769143</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>171.345640474436</v>
+        <v>139.6276133533382</v>
       </c>
       <c r="K19" t="n">
-        <v>330.9492381258244</v>
+        <v>330.9492381258219</v>
       </c>
       <c r="L19" t="n">
-        <v>579.6698525529948</v>
+        <v>579.6698525529924</v>
       </c>
       <c r="M19" t="n">
-        <v>840.1131043570058</v>
+        <v>747.1023338521902</v>
       </c>
       <c r="N19" t="n">
-        <v>1104.432711891666</v>
+        <v>1011.421941386851</v>
       </c>
       <c r="O19" t="n">
-        <v>1242.351061109856</v>
+        <v>1242.351061109854</v>
       </c>
       <c r="P19" t="n">
-        <v>1434.312834367428</v>
+        <v>1434.312834367426</v>
       </c>
       <c r="Q19" t="n">
-        <v>1540.244372230782</v>
+        <v>1540.24437223078</v>
       </c>
       <c r="R19" t="n">
-        <v>1545.212311592248</v>
+        <v>1545.212311592247</v>
       </c>
       <c r="S19" t="n">
-        <v>1448.425693315221</v>
+        <v>1448.42569331522</v>
       </c>
       <c r="T19" t="n">
-        <v>1321.558343780894</v>
+        <v>1321.558343780892</v>
       </c>
       <c r="U19" t="n">
-        <v>1127.354742802684</v>
+        <v>1127.354742802682</v>
       </c>
       <c r="V19" t="n">
-        <v>967.5695204929434</v>
+        <v>967.5695204929423</v>
       </c>
       <c r="W19" t="n">
-        <v>773.0516163521294</v>
+        <v>773.0516163521282</v>
       </c>
       <c r="X19" t="n">
-        <v>639.9613313502585</v>
+        <v>639.9613313502575</v>
       </c>
       <c r="Y19" t="n">
-        <v>514.0680181028749</v>
+        <v>514.068018102874</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1733.774944536555</v>
+        <v>1680.964583048799</v>
       </c>
       <c r="C20" t="n">
-        <v>1459.71169349229</v>
+        <v>1406.901332004534</v>
       </c>
       <c r="D20" t="n">
-        <v>1196.345260781686</v>
+        <v>1143.53489929393</v>
       </c>
       <c r="E20" t="n">
-        <v>905.4562740795877</v>
+        <v>852.6459125918329</v>
       </c>
       <c r="F20" t="n">
-        <v>589.3696351861266</v>
+        <v>536.5592736983721</v>
       </c>
       <c r="G20" t="n">
-        <v>269.1964509272697</v>
+        <v>269.1964509272696</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
@@ -5774,28 +5774,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3310.214419032411</v>
+        <v>3310.214419032413</v>
       </c>
       <c r="T20" t="n">
-        <v>3199.13593731278</v>
+        <v>3199.135937312782</v>
       </c>
       <c r="U20" t="n">
-        <v>3040.504726482763</v>
+        <v>3040.504726482764</v>
       </c>
       <c r="V20" t="n">
-        <v>2804.341105035339</v>
+        <v>2804.34110503534</v>
       </c>
       <c r="W20" t="n">
-        <v>2599.282077149128</v>
+        <v>2546.471715661373</v>
       </c>
       <c r="X20" t="n">
-        <v>2320.715584784195</v>
+        <v>2267.90522329644</v>
       </c>
       <c r="Y20" t="n">
-        <v>2025.47551870453</v>
+        <v>1972.665157216775</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.543854481107</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C21" t="n">
-        <v>767.09082519998</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387288</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332733</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601583</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927764</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064387</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.82830229719</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199863</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>427.3188191687817</v>
+        <v>427.3188191687809</v>
       </c>
       <c r="C22" t="n">
-        <v>353.2819021370213</v>
+        <v>353.2819021370207</v>
       </c>
       <c r="D22" t="n">
-        <v>298.0645286208322</v>
+        <v>298.0645286208316</v>
       </c>
       <c r="E22" t="n">
-        <v>245.0507009345856</v>
+        <v>245.0507009345851</v>
       </c>
       <c r="F22" t="n">
-        <v>193.0600193328218</v>
+        <v>193.0600193328214</v>
       </c>
       <c r="G22" t="n">
-        <v>120.2564486036872</v>
+        <v>120.256448603687</v>
       </c>
       <c r="H22" t="n">
-        <v>68.93852771769153</v>
+        <v>68.93852771769141</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>171.345640474436</v>
+        <v>171.3456404744362</v>
       </c>
       <c r="K22" t="n">
-        <v>362.6672652469194</v>
+        <v>269.6564947421066</v>
       </c>
       <c r="L22" t="n">
-        <v>611.3878796740898</v>
+        <v>518.3771091692772</v>
       </c>
       <c r="M22" t="n">
-        <v>871.8311314781008</v>
+        <v>778.8203609732884</v>
       </c>
       <c r="N22" t="n">
-        <v>1136.150739012762</v>
+        <v>1043.139968507949</v>
       </c>
       <c r="O22" t="n">
-        <v>1274.069088230951</v>
+        <v>1274.069088230953</v>
       </c>
       <c r="P22" t="n">
-        <v>1466.030861488523</v>
+        <v>1466.030861488525</v>
       </c>
       <c r="Q22" t="n">
-        <v>1540.244372230782</v>
+        <v>1540.24437223078</v>
       </c>
       <c r="R22" t="n">
-        <v>1545.212311592248</v>
+        <v>1545.212311592247</v>
       </c>
       <c r="S22" t="n">
-        <v>1448.425693315221</v>
+        <v>1448.42569331522</v>
       </c>
       <c r="T22" t="n">
-        <v>1321.558343780894</v>
+        <v>1321.558343780892</v>
       </c>
       <c r="U22" t="n">
-        <v>1127.354742802684</v>
+        <v>1127.354742802682</v>
       </c>
       <c r="V22" t="n">
-        <v>967.5695204929434</v>
+        <v>967.5695204929423</v>
       </c>
       <c r="W22" t="n">
-        <v>773.0516163521294</v>
+        <v>773.0516163521282</v>
       </c>
       <c r="X22" t="n">
-        <v>639.9613313502585</v>
+        <v>639.9613313502575</v>
       </c>
       <c r="Y22" t="n">
-        <v>514.0680181028749</v>
+        <v>514.068018102874</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1733.992572689843</v>
+        <v>1691.845990713182</v>
       </c>
       <c r="C23" t="n">
-        <v>1459.929321645577</v>
+        <v>1417.782739668917</v>
       </c>
       <c r="D23" t="n">
-        <v>1196.562888934973</v>
+        <v>1154.416306958313</v>
       </c>
       <c r="E23" t="n">
-        <v>905.6739022328757</v>
+        <v>863.5273202562162</v>
       </c>
       <c r="F23" t="n">
-        <v>589.5872633394147</v>
+        <v>589.587263339414</v>
       </c>
       <c r="G23" t="n">
-        <v>269.4140790805574</v>
+        <v>269.4140790805573</v>
       </c>
       <c r="H23" t="n">
-        <v>66.72974458547112</v>
+        <v>66.7297445854711</v>
       </c>
       <c r="I23" t="n">
-        <v>66.72974458547112</v>
+        <v>66.7297445854711</v>
       </c>
       <c r="J23" t="n">
-        <v>255.6088755444966</v>
+        <v>255.6088755444965</v>
       </c>
       <c r="K23" t="n">
-        <v>589.4282492343431</v>
+        <v>589.428249234343</v>
       </c>
       <c r="L23" t="n">
-        <v>1051.126241993849</v>
+        <v>1040.462462482752</v>
       </c>
       <c r="M23" t="n">
-        <v>1584.658146665774</v>
+        <v>1573.994367154676</v>
       </c>
       <c r="N23" t="n">
-        <v>2131.436963724556</v>
+        <v>2120.773184213459</v>
       </c>
       <c r="O23" t="n">
-        <v>2634.409434603893</v>
+        <v>2623.745655092795</v>
       </c>
       <c r="P23" t="n">
-        <v>3029.183800961071</v>
+        <v>3029.18380096107</v>
       </c>
       <c r="Q23" t="n">
-        <v>3277.470162716754</v>
+        <v>3277.470162716752</v>
       </c>
       <c r="R23" t="n">
-        <v>3336.487229273556</v>
+        <v>3336.487229273554</v>
       </c>
       <c r="S23" t="n">
-        <v>3321.095826696798</v>
+        <v>3321.095826696796</v>
       </c>
       <c r="T23" t="n">
-        <v>3210.017344977166</v>
+        <v>3210.017344977165</v>
       </c>
       <c r="U23" t="n">
-        <v>3051.386134147149</v>
+        <v>3051.386134147148</v>
       </c>
       <c r="V23" t="n">
-        <v>2857.369094676384</v>
+        <v>2815.222512699724</v>
       </c>
       <c r="W23" t="n">
-        <v>2599.499705302416</v>
+        <v>2557.353123325756</v>
       </c>
       <c r="X23" t="n">
-        <v>2320.933212937483</v>
+        <v>2278.786630960823</v>
       </c>
       <c r="Y23" t="n">
-        <v>2025.693146857818</v>
+        <v>1983.546564881157</v>
       </c>
     </row>
     <row r="24">
@@ -6042,13 +6042,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.7614826343964</v>
+        <v>941.7614826343963</v>
       </c>
       <c r="C24" t="n">
-        <v>767.3084533532694</v>
+        <v>767.3084533532693</v>
       </c>
       <c r="D24" t="n">
-        <v>618.3740436920182</v>
+        <v>618.3740436920181</v>
       </c>
       <c r="E24" t="n">
         <v>459.1365886865626</v>
@@ -6057,13 +6057,13 @@
         <v>312.6020307134476</v>
       </c>
       <c r="G24" t="n">
-        <v>176.2389305460656</v>
+        <v>176.2389305460657</v>
       </c>
       <c r="H24" t="n">
-        <v>85.73703618393316</v>
+        <v>85.73703618393313</v>
       </c>
       <c r="I24" t="n">
-        <v>66.72974458547112</v>
+        <v>66.7297445854711</v>
       </c>
       <c r="J24" t="n">
         <v>160.4070140760884</v>
@@ -6072,7 +6072,7 @@
         <v>398.6712130564356</v>
       </c>
       <c r="L24" t="n">
-        <v>765.369373369101</v>
+        <v>765.3693733691009</v>
       </c>
       <c r="M24" t="n">
         <v>1212.645698591417</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>427.5364473220695</v>
+        <v>427.5364473220686</v>
       </c>
       <c r="C25" t="n">
-        <v>353.4995302903091</v>
+        <v>353.4995302903084</v>
       </c>
       <c r="D25" t="n">
-        <v>298.2821567741199</v>
+        <v>298.2821567741193</v>
       </c>
       <c r="E25" t="n">
-        <v>245.2683290878734</v>
+        <v>245.2683290878728</v>
       </c>
       <c r="F25" t="n">
-        <v>193.2776474861095</v>
+        <v>193.2776474861091</v>
       </c>
       <c r="G25" t="n">
-        <v>120.474076756975</v>
+        <v>120.4740767569747</v>
       </c>
       <c r="H25" t="n">
-        <v>69.15615587097926</v>
+        <v>69.15615587097911</v>
       </c>
       <c r="I25" t="n">
-        <v>66.72974458547112</v>
+        <v>66.7297445854711</v>
       </c>
       <c r="J25" t="n">
-        <v>171.5632686277238</v>
+        <v>171.5632686277239</v>
       </c>
       <c r="K25" t="n">
-        <v>362.8848934002073</v>
+        <v>362.8848934002075</v>
       </c>
       <c r="L25" t="n">
-        <v>611.6055078273778</v>
+        <v>611.6055078273781</v>
       </c>
       <c r="M25" t="n">
-        <v>872.0487596313887</v>
+        <v>872.0487596313892</v>
       </c>
       <c r="N25" t="n">
-        <v>1109.618279406421</v>
+        <v>1104.650340044952</v>
       </c>
       <c r="O25" t="n">
-        <v>1247.53662862461</v>
+        <v>1242.568689263142</v>
       </c>
       <c r="P25" t="n">
-        <v>1439.498401882182</v>
+        <v>1434.530462520714</v>
       </c>
       <c r="Q25" t="n">
-        <v>1545.429939745536</v>
+        <v>1540.462000384068</v>
       </c>
       <c r="R25" t="n">
-        <v>1545.429939745536</v>
+        <v>1545.429939745534</v>
       </c>
       <c r="S25" t="n">
-        <v>1448.643321468509</v>
+        <v>1448.643321468507</v>
       </c>
       <c r="T25" t="n">
-        <v>1321.775971934182</v>
+        <v>1321.77597193418</v>
       </c>
       <c r="U25" t="n">
-        <v>1127.572370955972</v>
+        <v>1127.57237095597</v>
       </c>
       <c r="V25" t="n">
-        <v>967.7871486462313</v>
+        <v>967.78714864623</v>
       </c>
       <c r="W25" t="n">
-        <v>773.2692445054172</v>
+        <v>773.2692445054159</v>
       </c>
       <c r="X25" t="n">
-        <v>640.1789595035464</v>
+        <v>640.1789595035452</v>
       </c>
       <c r="Y25" t="n">
-        <v>514.2856462561627</v>
+        <v>514.2856462561617</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1768.556402935122</v>
+        <v>1340.251487512674</v>
       </c>
       <c r="C26" t="n">
-        <v>1447.043518942784</v>
+        <v>1018.738603520336</v>
       </c>
       <c r="D26" t="n">
-        <v>1136.227453284107</v>
+        <v>1018.738603520336</v>
       </c>
       <c r="E26" t="n">
-        <v>797.8888336339356</v>
+        <v>680.399983870165</v>
       </c>
       <c r="F26" t="n">
-        <v>434.3525617924013</v>
+        <v>316.8637120286307</v>
       </c>
       <c r="G26" t="n">
-        <v>66.72974458547112</v>
+        <v>316.8637120286307</v>
       </c>
       <c r="H26" t="n">
-        <v>66.72974458547112</v>
+        <v>66.7297445854711</v>
       </c>
       <c r="I26" t="n">
-        <v>66.72974458547112</v>
+        <v>66.7297445854711</v>
       </c>
       <c r="J26" t="n">
-        <v>255.6088755444966</v>
+        <v>255.6088755444965</v>
       </c>
       <c r="K26" t="n">
-        <v>589.4282492343431</v>
+        <v>589.428249234343</v>
       </c>
       <c r="L26" t="n">
         <v>1040.462462482752</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.994367154677</v>
+        <v>1573.994367154676</v>
       </c>
       <c r="N26" t="n">
-        <v>2131.436963724556</v>
+        <v>2120.773184213459</v>
       </c>
       <c r="O26" t="n">
-        <v>2634.409434603893</v>
+        <v>2623.745655092795</v>
       </c>
       <c r="P26" t="n">
-        <v>3029.183800961071</v>
+        <v>3018.520021449974</v>
       </c>
       <c r="Q26" t="n">
-        <v>3277.470162716754</v>
+        <v>3266.806383205656</v>
       </c>
       <c r="R26" t="n">
-        <v>3336.487229273556</v>
+        <v>3336.487229273554</v>
       </c>
       <c r="S26" t="n">
-        <v>3273.646193748725</v>
+        <v>3273.646193748723</v>
       </c>
       <c r="T26" t="n">
-        <v>3273.646193748725</v>
+        <v>3115.118079081018</v>
       </c>
       <c r="U26" t="n">
-        <v>3067.565349970634</v>
+        <v>2909.037235302928</v>
       </c>
       <c r="V26" t="n">
-        <v>3067.565349970634</v>
+        <v>2653.426541291509</v>
       </c>
       <c r="W26" t="n">
-        <v>2762.246327648593</v>
+        <v>2348.107518969468</v>
       </c>
       <c r="X26" t="n">
-        <v>2436.230202335587</v>
+        <v>2022.091393656461</v>
       </c>
       <c r="Y26" t="n">
-        <v>2107.706610051171</v>
+        <v>1679.401694628723</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.7614826343963</v>
+        <v>941.7614826343962</v>
       </c>
       <c r="C27" t="n">
-        <v>767.3084533532693</v>
+        <v>767.3084533532692</v>
       </c>
       <c r="D27" t="n">
-        <v>618.3740436920182</v>
+        <v>618.3740436920179</v>
       </c>
       <c r="E27" t="n">
-        <v>459.1365886865626</v>
+        <v>459.1365886865625</v>
       </c>
       <c r="F27" t="n">
-        <v>312.6020307134476</v>
+        <v>312.6020307134475</v>
       </c>
       <c r="G27" t="n">
         <v>176.2389305460656</v>
       </c>
       <c r="H27" t="n">
-        <v>85.73703618393316</v>
+        <v>85.73703618393313</v>
       </c>
       <c r="I27" t="n">
-        <v>66.72974458547112</v>
+        <v>66.7297445854711</v>
       </c>
       <c r="J27" t="n">
         <v>160.4070140760884</v>
@@ -6312,7 +6312,7 @@
         <v>765.3693733691009</v>
       </c>
       <c r="M27" t="n">
-        <v>1212.645698591417</v>
+        <v>1212.645698591416</v>
       </c>
       <c r="N27" t="n">
         <v>1686.168742145871</v>
@@ -6324,7 +6324,7 @@
         <v>2407.629613040029</v>
       </c>
       <c r="Q27" t="n">
-        <v>2565.271170686629</v>
+        <v>2565.271170686628</v>
       </c>
       <c r="R27" t="n">
         <v>2565.126817279144</v>
@@ -6333,13 +6333,13 @@
         <v>2435.688930772624</v>
       </c>
       <c r="T27" t="n">
-        <v>2243.04593045048</v>
+        <v>2243.045930450479</v>
       </c>
       <c r="U27" t="n">
         <v>2014.978083584895</v>
       </c>
       <c r="V27" t="n">
-        <v>1779.825975353153</v>
+        <v>1779.825975353152</v>
       </c>
       <c r="W27" t="n">
         <v>1525.588618624951</v>
@@ -6367,25 +6367,25 @@
         <v>535.5303215144859</v>
       </c>
       <c r="E28" t="n">
-        <v>435.066860880166</v>
+        <v>435.0668608801661</v>
       </c>
       <c r="F28" t="n">
-        <v>335.6265463303289</v>
+        <v>335.626546330329</v>
       </c>
       <c r="G28" t="n">
-        <v>215.3733426531214</v>
+        <v>215.3733426531213</v>
       </c>
       <c r="H28" t="n">
         <v>116.6057888190525</v>
       </c>
       <c r="I28" t="n">
-        <v>66.72974458547112</v>
+        <v>66.7297445854711</v>
       </c>
       <c r="J28" t="n">
         <v>158.3577622848132</v>
       </c>
       <c r="K28" t="n">
-        <v>408.8503304860963</v>
+        <v>408.8503304860962</v>
       </c>
       <c r="L28" t="n">
         <v>771.915514186999</v>
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1707.874304719604</v>
+        <v>1638.265052441603</v>
       </c>
       <c r="C29" t="n">
-        <v>1386.361420727266</v>
+        <v>1316.752168449264</v>
       </c>
       <c r="D29" t="n">
-        <v>1386.361420727266</v>
+        <v>1136.227453284107</v>
       </c>
       <c r="E29" t="n">
-        <v>1048.022801077095</v>
+        <v>797.8888336339356</v>
       </c>
       <c r="F29" t="n">
-        <v>684.4865292355609</v>
+        <v>434.3525617924014</v>
       </c>
       <c r="G29" t="n">
-        <v>316.8637120286306</v>
+        <v>66.7297445854711</v>
       </c>
       <c r="H29" t="n">
-        <v>66.72974458547112</v>
+        <v>66.7297445854711</v>
       </c>
       <c r="I29" t="n">
-        <v>66.72974458547112</v>
+        <v>66.7297445854711</v>
       </c>
       <c r="J29" t="n">
-        <v>255.6088755444966</v>
+        <v>266.2726550555922</v>
       </c>
       <c r="K29" t="n">
-        <v>589.4282492343431</v>
+        <v>600.0920287454387</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.462462482752</v>
+        <v>1051.126241993848</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.994367154677</v>
+        <v>1584.658146665772</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.773184213459</v>
+        <v>2131.436963724555</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.745655092796</v>
+        <v>2634.409434603891</v>
       </c>
       <c r="P29" t="n">
-        <v>3029.183800961071</v>
+        <v>3029.18380096107</v>
       </c>
       <c r="Q29" t="n">
-        <v>3277.470162716754</v>
+        <v>3277.470162716752</v>
       </c>
       <c r="R29" t="n">
-        <v>3336.487229273556</v>
+        <v>3336.487229273554</v>
       </c>
       <c r="S29" t="n">
-        <v>3273.646193748725</v>
+        <v>3273.646193748723</v>
       </c>
       <c r="T29" t="n">
-        <v>3115.11807908102</v>
+        <v>3115.118079081018</v>
       </c>
       <c r="U29" t="n">
-        <v>2909.03723530293</v>
+        <v>2909.037235302928</v>
       </c>
       <c r="V29" t="n">
-        <v>2625.423980907432</v>
+        <v>2625.423980907431</v>
       </c>
       <c r="W29" t="n">
-        <v>2320.104958585392</v>
+        <v>2320.10495858539</v>
       </c>
       <c r="X29" t="n">
-        <v>2047.024511835653</v>
+        <v>2320.10495858539</v>
       </c>
       <c r="Y29" t="n">
-        <v>2047.024511835653</v>
+        <v>1977.415259557651</v>
       </c>
     </row>
     <row r="30">
@@ -6531,13 +6531,13 @@
         <v>312.6020307134476</v>
       </c>
       <c r="G30" t="n">
-        <v>176.2389305460656</v>
+        <v>176.2389305460657</v>
       </c>
       <c r="H30" t="n">
-        <v>85.73703618393316</v>
+        <v>85.73703618393318</v>
       </c>
       <c r="I30" t="n">
-        <v>66.72974458547112</v>
+        <v>66.7297445854711</v>
       </c>
       <c r="J30" t="n">
         <v>160.4070140760884</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>759.683877958582</v>
+        <v>759.6838779585823</v>
       </c>
       <c r="C31" t="n">
-        <v>638.1973279787484</v>
+        <v>638.1973279787487</v>
       </c>
       <c r="D31" t="n">
-        <v>535.530321514486</v>
+        <v>535.5303215144862</v>
       </c>
       <c r="E31" t="n">
-        <v>435.0668608801662</v>
+        <v>435.0668608801664</v>
       </c>
       <c r="F31" t="n">
-        <v>335.6265463303291</v>
+        <v>335.6265463303292</v>
       </c>
       <c r="G31" t="n">
         <v>215.3733426531214</v>
@@ -6616,16 +6616,16 @@
         <v>116.6057888190525</v>
       </c>
       <c r="I31" t="n">
-        <v>66.72974458547112</v>
+        <v>66.7297445854711</v>
       </c>
       <c r="J31" t="n">
-        <v>158.3577622848133</v>
+        <v>158.3577622848132</v>
       </c>
       <c r="K31" t="n">
         <v>408.8503304860963</v>
       </c>
       <c r="L31" t="n">
-        <v>771.9155141869992</v>
+        <v>771.915514186999</v>
       </c>
       <c r="M31" t="n">
         <v>1162.577945038955</v>
@@ -6640,31 +6640,31 @@
         <v>2175.439576856112</v>
       </c>
       <c r="Q31" t="n">
-        <v>2299.555258261033</v>
+        <v>2299.555258261034</v>
       </c>
       <c r="R31" t="n">
-        <v>2257.174433966634</v>
+        <v>2257.174433966635</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.938182741534</v>
+        <v>2112.938182741535</v>
       </c>
       <c r="T31" t="n">
-        <v>1938.621200259133</v>
+        <v>1938.621200259134</v>
       </c>
       <c r="U31" t="n">
-        <v>1696.96796633285</v>
+        <v>1696.967966332851</v>
       </c>
       <c r="V31" t="n">
         <v>1489.733111075037</v>
       </c>
       <c r="W31" t="n">
-        <v>1247.765573986149</v>
+        <v>1247.76557398615</v>
       </c>
       <c r="X31" t="n">
-        <v>1067.225656036205</v>
+        <v>1067.225656036206</v>
       </c>
       <c r="Y31" t="n">
-        <v>893.8827098407485</v>
+        <v>893.8827098407488</v>
       </c>
     </row>
     <row r="32">
@@ -6680,64 +6680,64 @@
         <v>1444.876970939627</v>
       </c>
       <c r="D32" t="n">
-        <v>1184.521008370213</v>
+        <v>1184.521008370214</v>
       </c>
       <c r="E32" t="n">
-        <v>896.6424918093055</v>
+        <v>896.642491809306</v>
       </c>
       <c r="F32" t="n">
-        <v>583.5663230570344</v>
+        <v>583.566323057035</v>
       </c>
       <c r="G32" t="n">
-        <v>266.4036089393675</v>
+        <v>266.4036089393673</v>
       </c>
       <c r="H32" t="n">
-        <v>66.72974458547112</v>
+        <v>66.7297445854711</v>
       </c>
       <c r="I32" t="n">
-        <v>66.72974458547112</v>
+        <v>66.7297445854711</v>
       </c>
       <c r="J32" t="n">
-        <v>255.6088755444966</v>
+        <v>266.2726550555922</v>
       </c>
       <c r="K32" t="n">
-        <v>589.4282492343431</v>
+        <v>600.0920287454387</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.462462482752</v>
+        <v>1051.126241993848</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.994367154677</v>
+        <v>1584.658146665772</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.773184213459</v>
+        <v>2131.436963724555</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.745655092796</v>
+        <v>2634.409434603891</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.520021449974</v>
+        <v>3029.18380096107</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.806383205656</v>
+        <v>3277.470162716752</v>
       </c>
       <c r="R32" t="n">
-        <v>3336.487229273556</v>
+        <v>3336.487229273554</v>
       </c>
       <c r="S32" t="n">
-        <v>3324.106296837987</v>
+        <v>3324.106296837986</v>
       </c>
       <c r="T32" t="n">
-        <v>3216.038285259546</v>
+        <v>3216.038285259545</v>
       </c>
       <c r="U32" t="n">
-        <v>3060.417544570719</v>
+        <v>3060.417544570718</v>
       </c>
       <c r="V32" t="n">
-        <v>2827.264393264485</v>
+        <v>2827.264393264484</v>
       </c>
       <c r="W32" t="n">
-        <v>2572.405474031707</v>
+        <v>2572.405474031706</v>
       </c>
       <c r="X32" t="n">
         <v>2296.849451807963</v>
@@ -6768,13 +6768,13 @@
         <v>312.6020307134474</v>
       </c>
       <c r="G33" t="n">
-        <v>176.2389305460659</v>
+        <v>176.238930546066</v>
       </c>
       <c r="H33" t="n">
-        <v>85.73703618393347</v>
+        <v>85.73703618393351</v>
       </c>
       <c r="I33" t="n">
-        <v>66.72974458547112</v>
+        <v>66.7297445854711</v>
       </c>
       <c r="J33" t="n">
         <v>160.4070140760884</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>407.0472151894218</v>
+        <v>407.0472151894211</v>
       </c>
       <c r="C34" t="n">
-        <v>336.0207682988514</v>
+        <v>336.0207682988507</v>
       </c>
       <c r="D34" t="n">
-        <v>283.8138649238521</v>
+        <v>283.8138649238516</v>
       </c>
       <c r="E34" t="n">
-        <v>233.8105073787954</v>
+        <v>233.810507378795</v>
       </c>
       <c r="F34" t="n">
-        <v>184.8302959182215</v>
+        <v>184.8302959182212</v>
       </c>
       <c r="G34" t="n">
-        <v>115.0371953302769</v>
+        <v>115.0371953302767</v>
       </c>
       <c r="H34" t="n">
-        <v>66.72974458547112</v>
+        <v>66.7297445854711</v>
       </c>
       <c r="I34" t="n">
-        <v>67.30218066992485</v>
+        <v>66.7297445854711</v>
       </c>
       <c r="J34" t="n">
-        <v>175.0862664975577</v>
+        <v>174.5138304131041</v>
       </c>
       <c r="K34" t="n">
-        <v>369.3584530554216</v>
+        <v>272.8246846807745</v>
       </c>
       <c r="L34" t="n">
-        <v>621.0296292679723</v>
+        <v>524.4958608933254</v>
       </c>
       <c r="M34" t="n">
-        <v>788.46211056717</v>
+        <v>783.9554921066032</v>
       </c>
       <c r="N34" t="n">
-        <v>1055.732279887211</v>
+        <v>955.2643291364507</v>
       </c>
       <c r="O34" t="n">
-        <v>1289.611961395594</v>
+        <v>1189.144010644834</v>
       </c>
       <c r="P34" t="n">
-        <v>1391.974846834635</v>
+        <v>1384.056345687786</v>
       </c>
       <c r="Q34" t="n">
-        <v>1500.856946483369</v>
+        <v>1492.938445336521</v>
       </c>
       <c r="R34" t="n">
-        <v>1500.856946483369</v>
+        <v>1500.856946483367</v>
       </c>
       <c r="S34" t="n">
-        <v>1407.080798347532</v>
+        <v>1407.08079834753</v>
       </c>
       <c r="T34" t="n">
-        <v>1283.223918954394</v>
+        <v>1283.223918954393</v>
       </c>
       <c r="U34" t="n">
-        <v>1092.030788117374</v>
+        <v>1092.030788117373</v>
       </c>
       <c r="V34" t="n">
-        <v>935.2560359488239</v>
+        <v>935.2560359488225</v>
       </c>
       <c r="W34" t="n">
-        <v>743.7486019491996</v>
+        <v>743.7486019491985</v>
       </c>
       <c r="X34" t="n">
-        <v>613.6687870885187</v>
+        <v>613.6687870885178</v>
       </c>
       <c r="Y34" t="n">
-        <v>490.7859439823251</v>
+        <v>490.7859439823242</v>
       </c>
     </row>
     <row r="35">
@@ -6911,46 +6911,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470375</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464974</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G35" t="n">
-        <v>265.424282249573</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218377</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
         <v>3018.302393296687</v>
@@ -6965,22 +6965,22 @@
         <v>3313.98658771011</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U35" t="n">
         <v>3051.821232515856</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X35" t="n">
         <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="36">
@@ -7008,7 +7008,7 @@
         <v>176.0213023927777</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
         <v>66.51211643218343</v>
@@ -7090,31 +7090,31 @@
         <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>67.83109325226755</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
-        <v>163.8840378413038</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K37" t="n">
-        <v>262.1948921089742</v>
+        <v>273.3535972631171</v>
       </c>
       <c r="L37" t="n">
-        <v>417.9047360313314</v>
+        <v>525.7713142112982</v>
       </c>
       <c r="M37" t="n">
-        <v>682.0450903563531</v>
+        <v>693.203795510496</v>
       </c>
       <c r="N37" t="n">
-        <v>950.0618004120244</v>
+        <v>941.3967585295474</v>
       </c>
       <c r="O37" t="n">
-        <v>1184.688022656038</v>
+        <v>1176.022980773561</v>
       </c>
       <c r="P37" t="n">
-        <v>1380.34689843462</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q37" t="n">
-        <v>1489.975538818985</v>
+        <v>1481.310496936508</v>
       </c>
       <c r="R37" t="n">
         <v>1489.975538818985</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470375</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464984</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307341</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G38" t="n">
         <v>265.4242822495729</v>
@@ -7187,7 +7187,7 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
         <v>3018.302393296687</v>
@@ -7196,28 +7196,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710111</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746129</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="39">
@@ -7245,7 +7245,7 @@
         <v>176.0213023927777</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218343</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.2593958170925</v>
+        <v>402.2593958170929</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630289</v>
+        <v>331.9946474630293</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245366</v>
+        <v>280.5494426245369</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919199</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G40" t="n">
         <v>114.0578686404823</v>
@@ -7327,55 +7327,55 @@
         <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>67.83109325226762</v>
+        <v>67.83109325226755</v>
       </c>
       <c r="J40" t="n">
-        <v>79.65384678970707</v>
+        <v>176.3617198155308</v>
       </c>
       <c r="K40" t="n">
-        <v>177.9647010573775</v>
+        <v>274.6725740832012</v>
       </c>
       <c r="L40" t="n">
-        <v>430.3824180055586</v>
+        <v>514.6126090571552</v>
       </c>
       <c r="M40" t="n">
-        <v>694.5227723305803</v>
+        <v>778.7529633821769</v>
       </c>
       <c r="N40" t="n">
-        <v>962.5394823862517</v>
+        <v>1046.769673437848</v>
       </c>
       <c r="O40" t="n">
-        <v>1197.165704630265</v>
+        <v>1184.688022656038</v>
       </c>
       <c r="P40" t="n">
-        <v>1392.824580408848</v>
+        <v>1380.34689843462</v>
       </c>
       <c r="Q40" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818985</v>
       </c>
       <c r="R40" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818985</v>
       </c>
       <c r="S40" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219655</v>
       </c>
       <c r="T40" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363024</v>
       </c>
       <c r="U40" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062511</v>
       </c>
       <c r="V40" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304675</v>
       </c>
       <c r="W40" t="n">
-        <v>736.6756869673495</v>
+        <v>736.6756869673502</v>
       </c>
       <c r="X40" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431761</v>
       </c>
       <c r="Y40" t="n">
-        <v>485.2364260734888</v>
+        <v>485.2364260734893</v>
       </c>
     </row>
     <row r="41">
@@ -7394,13 +7394,13 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307332</v>
+        <v>581.825297830733</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218343</v>
@@ -7409,28 +7409,28 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
@@ -7439,7 +7439,7 @@
         <v>3313.98658771011</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U41" t="n">
         <v>3051.821232515855</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.2593958170928</v>
+        <v>402.2593958170923</v>
       </c>
       <c r="C43" t="n">
-        <v>331.9946474630292</v>
+        <v>331.9946474630288</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245368</v>
+        <v>280.5494426245365</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159871</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F43" t="n">
-        <v>183.08927069192</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H43" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>67.83109325226756</v>
+        <v>67.83109325226764</v>
       </c>
       <c r="J43" t="n">
-        <v>176.3617198155309</v>
+        <v>176.361719815531</v>
       </c>
       <c r="K43" t="n">
-        <v>274.6725740832013</v>
+        <v>371.3804471090253</v>
       </c>
       <c r="L43" t="n">
-        <v>430.3824180055585</v>
+        <v>623.7981640572065</v>
       </c>
       <c r="M43" t="n">
-        <v>694.5227723305802</v>
+        <v>791.2306453564042</v>
       </c>
       <c r="N43" t="n">
-        <v>941.3967585295469</v>
+        <v>1038.10463155537</v>
       </c>
       <c r="O43" t="n">
-        <v>1176.02298077356</v>
+        <v>1272.730853799383</v>
       </c>
       <c r="P43" t="n">
-        <v>1371.681856552143</v>
+        <v>1468.389729577966</v>
       </c>
       <c r="Q43" t="n">
-        <v>1481.310496936508</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R43" t="n">
-        <v>1489.975538818985</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S43" t="n">
         <v>1396.961089219654</v>
       </c>
       <c r="T43" t="n">
-        <v>1273.865908363024</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U43" t="n">
-        <v>1083.434476062511</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V43" t="n">
-        <v>927.4214224304673</v>
+        <v>927.4214224304665</v>
       </c>
       <c r="W43" t="n">
-        <v>736.67568696735</v>
+        <v>736.6756869673493</v>
       </c>
       <c r="X43" t="n">
-        <v>607.3575706431759</v>
+        <v>607.3575706431753</v>
       </c>
       <c r="Y43" t="n">
-        <v>485.2364260734892</v>
+        <v>485.2364260734886</v>
       </c>
     </row>
     <row r="44">
@@ -7628,13 +7628,13 @@
         <v>1440.850850103805</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464972</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F44" t="n">
-        <v>581.825297830733</v>
+        <v>581.8252978307335</v>
       </c>
       <c r="G44" t="n">
         <v>265.4242822495729</v>
@@ -7646,22 +7646,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
         <v>3018.302393296687</v>
@@ -7676,19 +7676,19 @@
         <v>3313.98658771011</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y44" t="n">
         <v>1999.070337960652</v>
@@ -7713,13 +7713,13 @@
         <v>458.9189605332746</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218343</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>402.2593958170928</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C46" t="n">
-        <v>331.9946474630292</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D46" t="n">
-        <v>280.5494426245368</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E46" t="n">
-        <v>231.3077836159871</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F46" t="n">
-        <v>183.08927069192</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G46" t="n">
         <v>114.0578686404823</v>
@@ -7801,55 +7801,55 @@
         <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>67.83109325226762</v>
       </c>
       <c r="J46" t="n">
-        <v>175.0427429954467</v>
+        <v>176.361719815531</v>
       </c>
       <c r="K46" t="n">
-        <v>370.061470288941</v>
+        <v>274.6725740832014</v>
       </c>
       <c r="L46" t="n">
-        <v>622.4791872371221</v>
+        <v>430.3824180055586</v>
       </c>
       <c r="M46" t="n">
-        <v>886.6195415621437</v>
+        <v>694.5227723305803</v>
       </c>
       <c r="N46" t="n">
-        <v>1057.928378591991</v>
+        <v>962.5394823862517</v>
       </c>
       <c r="O46" t="n">
-        <v>1292.554600836005</v>
+        <v>1176.02298077356</v>
       </c>
       <c r="P46" t="n">
-        <v>1391.505603588764</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q46" t="n">
-        <v>1489.975538818985</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R46" t="n">
-        <v>1489.975538818985</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S46" t="n">
         <v>1396.961089219654</v>
       </c>
       <c r="T46" t="n">
-        <v>1273.865908363024</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U46" t="n">
-        <v>1083.434476062511</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V46" t="n">
-        <v>927.4214224304673</v>
+        <v>927.4214224304668</v>
       </c>
       <c r="W46" t="n">
-        <v>736.67568696735</v>
+        <v>736.6756869673495</v>
       </c>
       <c r="X46" t="n">
-        <v>607.3575706431759</v>
+        <v>607.3575706431756</v>
       </c>
       <c r="Y46" t="n">
-        <v>485.2364260734892</v>
+        <v>485.2364260734888</v>
       </c>
     </row>
   </sheetData>
@@ -10282,13 +10282,13 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O31" t="n">
-        <v>163.041666365882</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P31" t="n">
         <v>135.0065633140411</v>
       </c>
       <c r="Q31" t="n">
-        <v>65.34295837775146</v>
+        <v>65.34295837775241</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,10 +23270,10 @@
         <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>31.73550625763924</v>
       </c>
       <c r="H11" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>102.4006336413264</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
-        <v>166.651333155404</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23549,19 +23549,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>83.92851037866768</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23741,10 +23741,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>52.28225787287971</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>52.28225787287747</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>52.28225787287686</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>52.28225787287977</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24215,7 +24215,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>41.72511615689211</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24263,7 +24263,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>41.72511615689154</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24446,7 +24446,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24455,10 +24455,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24494,13 +24494,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>280.7771218515423</v>
+        <v>27.72253478023759</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24509,7 +24509,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>14.02444567588901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24683,7 +24683,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020904</v>
+        <v>128.9884369885841</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24743,10 +24743,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>52.40632177763496</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y29" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>837302.1046910426</v>
+        <v>837302.1046910429</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>799144.297489992</v>
+        <v>799144.2974899918</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>799144.2974899921</v>
+        <v>799144.2974899919</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>593975.3455698526</v>
+        <v>593975.3455698525</v>
       </c>
       <c r="C2" t="n">
-        <v>593975.3455698527</v>
+        <v>593975.3455698525</v>
       </c>
       <c r="D2" t="n">
-        <v>593978.1684087019</v>
+        <v>593978.168408702</v>
       </c>
       <c r="E2" t="n">
-        <v>554284.9821701361</v>
+        <v>554284.9821701359</v>
       </c>
       <c r="F2" t="n">
-        <v>554284.9821701358</v>
+        <v>554284.9821701357</v>
       </c>
       <c r="G2" t="n">
-        <v>592238.0740497606</v>
+        <v>592238.0740497607</v>
       </c>
       <c r="H2" t="n">
         <v>592238.0740497606</v>
       </c>
       <c r="I2" t="n">
-        <v>592847.3266981918</v>
+        <v>592847.3266981902</v>
       </c>
       <c r="J2" t="n">
         <v>554894.2348185655</v>
       </c>
       <c r="K2" t="n">
-        <v>554894.2348185653</v>
+        <v>554894.2348185652</v>
       </c>
       <c r="L2" t="n">
-        <v>595255.2831516064</v>
+        <v>595255.2831516066</v>
       </c>
       <c r="M2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="N2" t="n">
-        <v>595255.2831516052</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="O2" t="n">
         <v>595255.2831516054</v>
       </c>
       <c r="P2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516054</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>10420.33926655311</v>
+        <v>10420.33926655353</v>
       </c>
       <c r="E3" t="n">
         <v>1151572.830875722</v>
@@ -26378,28 +26378,28 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487398</v>
+        <v>37580.10929487425</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>723.3987018806824</v>
+        <v>723.3987018799573</v>
       </c>
       <c r="J3" t="n">
-        <v>5.684341886080801e-11</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>77544.51094157039</v>
+        <v>77544.51094157061</v>
       </c>
       <c r="M3" t="n">
         <v>207113.9109540876</v>
       </c>
       <c r="N3" t="n">
-        <v>5.684341886080801e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,28 +26421,28 @@
         <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>463375.0335747266</v>
+        <v>463375.0335747264</v>
       </c>
       <c r="E4" t="n">
-        <v>62485.1651686847</v>
+        <v>62485.16516868465</v>
       </c>
       <c r="F4" t="n">
-        <v>62485.16516868475</v>
+        <v>62485.16516868474</v>
       </c>
       <c r="G4" t="n">
-        <v>91416.01306755036</v>
+        <v>91416.01306755042</v>
       </c>
       <c r="H4" t="n">
         <v>91416.01306755039</v>
       </c>
       <c r="I4" t="n">
-        <v>91906.68112942856</v>
+        <v>91906.68112942859</v>
       </c>
       <c r="J4" t="n">
-        <v>62975.8332305629</v>
+        <v>62975.83323056283</v>
       </c>
       <c r="K4" t="n">
-        <v>62975.8332305629</v>
+        <v>62975.83323056282</v>
       </c>
       <c r="L4" t="n">
         <v>93788.48670920229</v>
@@ -26451,13 +26451,13 @@
         <v>93774.13782657695</v>
       </c>
       <c r="N4" t="n">
-        <v>93774.13782657706</v>
+        <v>93774.13782657696</v>
       </c>
       <c r="O4" t="n">
-        <v>93774.13782657696</v>
+        <v>93774.137826577</v>
       </c>
       <c r="P4" t="n">
-        <v>93774.13782657695</v>
+        <v>93774.137826577</v>
       </c>
     </row>
     <row r="5">
@@ -26473,43 +26473,43 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>33892.84951251481</v>
+        <v>33892.84951251482</v>
       </c>
       <c r="E5" t="n">
+        <v>78255.49332178177</v>
+      </c>
+      <c r="F5" t="n">
         <v>78255.49332178176</v>
       </c>
-      <c r="F5" t="n">
-        <v>78255.49332178175</v>
-      </c>
       <c r="G5" t="n">
-        <v>82204.64608217019</v>
+        <v>82204.64608217022</v>
       </c>
       <c r="H5" t="n">
-        <v>82204.64608217019</v>
+        <v>82204.64608217023</v>
       </c>
       <c r="I5" t="n">
-        <v>82370.04347866887</v>
+        <v>82370.04347866884</v>
       </c>
       <c r="J5" t="n">
-        <v>78420.89071828041</v>
+        <v>78420.89071828038</v>
       </c>
       <c r="K5" t="n">
-        <v>78420.89071828041</v>
+        <v>78420.89071828038</v>
       </c>
       <c r="L5" t="n">
-        <v>82620.59982082556</v>
+        <v>82620.59982082555</v>
       </c>
       <c r="M5" t="n">
         <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
+        <v>82518.59730624985</v>
+      </c>
+      <c r="O5" t="n">
         <v>82518.59730624987</v>
       </c>
-      <c r="O5" t="n">
-        <v>82518.59730624985</v>
-      </c>
       <c r="P5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
     </row>
     <row r="6">
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>92731.78563812139</v>
+        <v>92727.37206025317</v>
       </c>
       <c r="C6" t="n">
-        <v>92731.78563812151</v>
+        <v>92727.37206025317</v>
       </c>
       <c r="D6" t="n">
-        <v>86289.94605490743</v>
+        <v>86285.54221096619</v>
       </c>
       <c r="E6" t="n">
-        <v>-738028.5071960523</v>
+        <v>-738169.7840959884</v>
       </c>
       <c r="F6" t="n">
-        <v>413544.3236796694</v>
+        <v>413403.0467797335</v>
       </c>
       <c r="G6" t="n">
-        <v>381037.305605166</v>
+        <v>381026.9014358491</v>
       </c>
       <c r="H6" t="n">
-        <v>418617.4149000401</v>
+        <v>418607.0107307232</v>
       </c>
       <c r="I6" t="n">
-        <v>417847.2033882136</v>
+        <v>417838.9000900976</v>
       </c>
       <c r="J6" t="n">
-        <v>413497.5108697222</v>
+        <v>413358.3348409878</v>
       </c>
       <c r="K6" t="n">
-        <v>413497.510869722</v>
+        <v>413358.3348409874</v>
       </c>
       <c r="L6" t="n">
-        <v>341301.6856800082</v>
+        <v>341301.6856800081</v>
       </c>
       <c r="M6" t="n">
-        <v>211848.6370646904</v>
+        <v>211848.6370646911</v>
       </c>
       <c r="N6" t="n">
         <v>418962.5480187782</v>
@@ -26561,7 +26561,7 @@
         <v>418962.5480187786</v>
       </c>
       <c r="P6" t="n">
-        <v>418962.5480187783</v>
+        <v>418962.5480187786</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F2" t="n">
         <v>46.97513661859258</v>
       </c>
       <c r="G2" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="H2" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="I2" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="L2" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="M2" t="n">
         <v>97.68472022810488</v>
       </c>
       <c r="N2" t="n">
+        <v>97.68472022810488</v>
+      </c>
+      <c r="O2" t="n">
+        <v>97.68472022810496</v>
+      </c>
+      <c r="P2" t="n">
         <v>97.68472022810495</v>
-      </c>
-      <c r="O2" t="n">
-        <v>97.68472022810489</v>
-      </c>
-      <c r="P2" t="n">
-        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="3">
@@ -26741,10 +26741,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>12.16740883095455</v>
+        <v>12.16740883095504</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26753,7 +26753,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26799,31 +26799,31 @@
         <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
-        <v>834.1218073183891</v>
+        <v>834.1218073183886</v>
       </c>
       <c r="J4" t="n">
-        <v>834.1218073183891</v>
+        <v>834.1218073183886</v>
       </c>
       <c r="K4" t="n">
-        <v>834.1218073183891</v>
+        <v>834.1218073183886</v>
       </c>
       <c r="L4" t="n">
-        <v>834.1218073183891</v>
+        <v>834.1218073183886</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022929</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,19 +26929,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>96.93063867696299</v>
+        <v>96.93063867696327</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7540815511418089</v>
+        <v>0.754081551141681</v>
       </c>
       <c r="N2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26963,22 +26963,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>12.16740883095455</v>
+        <v>12.16740883095504</v>
       </c>
       <c r="E3" t="n">
-        <v>1077.609291762344</v>
+        <v>1077.609291762343</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>-6.866720910294371e-14</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2.720351916096661</v>
+        <v>2.720351916095865</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>828.6811034861965</v>
+        <v>828.681103486197</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27871,37 +27871,37 @@
         <v>338.9738594999279</v>
       </c>
       <c r="I8" t="n">
-        <v>208.5901246298818</v>
+        <v>208.5901246298817</v>
       </c>
       <c r="J8" t="n">
-        <v>176.894372405013</v>
+        <v>176.8943724050128</v>
       </c>
       <c r="K8" t="n">
-        <v>213.8677805682749</v>
+        <v>213.8677805682746</v>
       </c>
       <c r="L8" t="n">
-        <v>228.0473863505265</v>
+        <v>228.0473863505262</v>
       </c>
       <c r="M8" t="n">
-        <v>221.7573265905357</v>
+        <v>221.7573265905353</v>
       </c>
       <c r="N8" t="n">
-        <v>220.685179471046</v>
+        <v>220.6851794710456</v>
       </c>
       <c r="O8" t="n">
-        <v>221.8567179355903</v>
+        <v>221.8567179355899</v>
       </c>
       <c r="P8" t="n">
-        <v>224.1990717385769</v>
+        <v>224.1990717385766</v>
       </c>
       <c r="Q8" t="n">
-        <v>217.0235058728666</v>
+        <v>217.0235058728664</v>
       </c>
       <c r="R8" t="n">
-        <v>212.5129307991474</v>
+        <v>212.5129307991473</v>
       </c>
       <c r="S8" t="n">
-        <v>207.9054371089172</v>
+        <v>207.9054371089171</v>
       </c>
       <c r="T8" t="n">
         <v>222.8817276258097</v>
@@ -27950,37 +27950,37 @@
         <v>111.9826835360647</v>
       </c>
       <c r="I9" t="n">
-        <v>98.62130302525478</v>
+        <v>98.62130302525475</v>
       </c>
       <c r="J9" t="n">
-        <v>124.3650025758404</v>
+        <v>124.3650025758403</v>
       </c>
       <c r="K9" t="n">
-        <v>133.615330569366</v>
+        <v>133.6153305693659</v>
       </c>
       <c r="L9" t="n">
-        <v>132.8718554951911</v>
+        <v>132.8718554951909</v>
       </c>
       <c r="M9" t="n">
-        <v>135.5027961091481</v>
+        <v>135.5027961091478</v>
       </c>
       <c r="N9" t="n">
-        <v>124.5349651374203</v>
+        <v>124.5349651374201</v>
       </c>
       <c r="O9" t="n">
-        <v>136.3694007948898</v>
+        <v>136.3694007948895</v>
       </c>
       <c r="P9" t="n">
-        <v>128.9768164173293</v>
+        <v>128.9768164173291</v>
       </c>
       <c r="Q9" t="n">
-        <v>136.6410168537942</v>
+        <v>136.641016853794</v>
       </c>
       <c r="R9" t="n">
-        <v>144.0545809506527</v>
+        <v>144.0545809506526</v>
       </c>
       <c r="S9" t="n">
-        <v>171.1970486849785</v>
+        <v>171.1970486849784</v>
       </c>
       <c r="T9" t="n">
         <v>200.0592395559947</v>
@@ -28032,31 +28032,31 @@
         <v>154.7906423303272</v>
       </c>
       <c r="J10" t="n">
-        <v>125.4441765463087</v>
+        <v>125.4441765463086</v>
       </c>
       <c r="K10" t="n">
-        <v>126.4640862875911</v>
+        <v>126.464086287591</v>
       </c>
       <c r="L10" t="n">
-        <v>131.6226139202312</v>
+        <v>131.6226139202311</v>
       </c>
       <c r="M10" t="n">
-        <v>135.4863965628157</v>
+        <v>135.4863965628156</v>
       </c>
       <c r="N10" t="n">
-        <v>124.3279380250454</v>
+        <v>124.3279380250452</v>
       </c>
       <c r="O10" t="n">
-        <v>135.3552454599792</v>
+        <v>135.355245459979</v>
       </c>
       <c r="P10" t="n">
-        <v>135.0743121296883</v>
+        <v>135.0743121296882</v>
       </c>
       <c r="Q10" t="n">
-        <v>149.6677228959717</v>
+        <v>149.6677228959716</v>
       </c>
       <c r="R10" t="n">
-        <v>176.3068339332695</v>
+        <v>176.3068339332694</v>
       </c>
       <c r="S10" t="n">
         <v>223.6342222545306</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="14">
@@ -28424,7 +28424,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28466,7 +28466,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="C17" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="D17" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="E17" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="F17" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="G17" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="H17" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="T17" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="U17" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="V17" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="W17" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="X17" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="Y17" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
     </row>
     <row r="18">
@@ -28661,7 +28661,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.119104808822158e-12</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="C19" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="D19" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="E19" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="F19" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="G19" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="H19" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="I19" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="J19" t="n">
-        <v>93.95027323718506</v>
+        <v>61.91186200375283</v>
       </c>
       <c r="K19" t="n">
-        <v>61.91186200375563</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="L19" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="M19" t="n">
-        <v>93.95027323718506</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="P19" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="Q19" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="R19" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="S19" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="T19" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="U19" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="V19" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="W19" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="X19" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="C20" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="D20" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="E20" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="F20" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="G20" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="H20" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="T20" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="U20" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="V20" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="W20" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="X20" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="Y20" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
     </row>
     <row r="21">
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.580957587066223e-12</v>
+        <v>-7.105427357601002e-13</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="C22" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="D22" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="E22" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="F22" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="G22" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="H22" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="I22" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="J22" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="K22" t="n">
-        <v>93.95027323718506</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="M22" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="N22" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="P22" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="Q22" t="n">
-        <v>61.91186200375577</v>
+        <v>61.91186200375222</v>
       </c>
       <c r="R22" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="S22" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="T22" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="U22" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="V22" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="W22" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="X22" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="Y22" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718517</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="C23" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="D23" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="E23" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="F23" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="G23" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="H23" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29065,7 +29065,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>10.77149445565396</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -29077,7 +29077,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>10.7714944556526</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="T23" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="U23" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="V23" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="W23" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="X23" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="Y23" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718517</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="C25" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="D25" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="E25" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="F25" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="G25" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="H25" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="I25" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="J25" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="K25" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="L25" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="M25" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="N25" t="n">
-        <v>66.92998257089337</v>
+        <v>61.91186200375273</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="Q25" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="S25" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="T25" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="U25" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="V25" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="W25" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="X25" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="Y25" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718517</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29308,7 +29308,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>10.77149445565385</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -29320,28 +29320,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>10.77149445565253</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="27">
@@ -29357,7 +29357,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="29">
@@ -29509,31 +29509,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>10.7714944556522</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -29551,7 +29551,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>10.77149445565396</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
     <row r="32">
@@ -29746,31 +29746,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="C32" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="D32" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="E32" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="F32" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="G32" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="H32" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>10.7714944556522</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -29794,28 +29794,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>10.77149445565389</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="T32" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="U32" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="V32" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="W32" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="X32" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="Y32" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="C34" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="D34" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="E34" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="F34" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="G34" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="H34" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="I34" t="n">
-        <v>96.93063867696307</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="K34" t="n">
-        <v>96.93063867696307</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>92.95671708492932</v>
       </c>
       <c r="N34" t="n">
-        <v>96.93063867696307</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="P34" t="n">
-        <v>3.44634614775957</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="Q34" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="S34" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="T34" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="U34" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="V34" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="W34" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="X34" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="Y34" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
     </row>
     <row r="35">
@@ -30080,10 +30080,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I36" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30162,22 +30162,22 @@
         <v>97.68472022810488</v>
       </c>
       <c r="I37" t="n">
+        <v>96.35242040983809</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>97.68472022810488</v>
       </c>
-      <c r="J37" t="n">
-        <v>85.08100106221896</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="M37" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>97.68472022810488</v>
+        <v>77.66073332242814</v>
       </c>
       <c r="O37" t="n">
         <v>97.68472022810488</v>
@@ -30189,7 +30189,7 @@
         <v>97.68472022810488</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="S37" t="n">
         <v>97.68472022810488</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30259,7 +30259,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="39">
@@ -30317,10 +30317,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I39" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>97.68472022810495</v>
+        <v>85.08100106221889</v>
       </c>
       <c r="M40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="N40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="O40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Q40" t="n">
-        <v>85.08100106221775</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="R40" t="n">
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30484,7 +30484,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="J43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="M43" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>76.32843350416078</v>
+        <v>76.32843350415951</v>
       </c>
       <c r="O43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="P43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Q43" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="45">
@@ -30785,7 +30785,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -30794,7 +30794,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="J46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="K46" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="O46" t="n">
-        <v>97.68472022810489</v>
+        <v>76.32843350416013</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Q46" t="n">
-        <v>86.41330088048522</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04891420635559615</v>
+        <v>0.04891420635559812</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5009426158392492</v>
+        <v>0.5009426158392694</v>
       </c>
       <c r="I8" t="n">
-        <v>1.885764940524122</v>
+        <v>1.885764940524198</v>
       </c>
       <c r="J8" t="n">
-        <v>4.151532121673283</v>
+        <v>4.15153212167345</v>
       </c>
       <c r="K8" t="n">
-        <v>6.222070476705668</v>
+        <v>6.222070476705919</v>
       </c>
       <c r="L8" t="n">
-        <v>7.719028619460746</v>
+        <v>7.719028619461056</v>
       </c>
       <c r="M8" t="n">
-        <v>8.588906636737079</v>
+        <v>8.588906636737423</v>
       </c>
       <c r="N8" t="n">
-        <v>8.727884125544916</v>
+        <v>8.727884125545268</v>
       </c>
       <c r="O8" t="n">
-        <v>8.241493486096457</v>
+        <v>8.241493486096788</v>
       </c>
       <c r="P8" t="n">
-        <v>7.033924016692676</v>
+        <v>7.033924016692959</v>
       </c>
       <c r="Q8" t="n">
-        <v>5.282184001582888</v>
+        <v>5.282184001583099</v>
       </c>
       <c r="R8" t="n">
-        <v>3.072607014984719</v>
+        <v>3.072607014984843</v>
       </c>
       <c r="S8" t="n">
-        <v>1.114632477328148</v>
+        <v>1.114632477328193</v>
       </c>
       <c r="T8" t="n">
-        <v>0.2141219383216222</v>
+        <v>0.2141219383216308</v>
       </c>
       <c r="U8" t="n">
-        <v>0.003913136508447691</v>
+        <v>0.003913136508447848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02617140767412866</v>
+        <v>0.02617140767412971</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2527607004317163</v>
+        <v>0.2527607004317264</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9010769747452193</v>
+        <v>0.9010769747452555</v>
       </c>
       <c r="J9" t="n">
-        <v>2.47262409082634</v>
+        <v>2.472624090826439</v>
       </c>
       <c r="K9" t="n">
-        <v>4.22610840499296</v>
+        <v>4.22610840499313</v>
       </c>
       <c r="L9" t="n">
-        <v>5.682524284683067</v>
+        <v>5.682524284683296</v>
       </c>
       <c r="M9" t="n">
-        <v>6.631237812870229</v>
+        <v>6.631237812870496</v>
       </c>
       <c r="N9" t="n">
-        <v>6.806746945912962</v>
+        <v>6.806746945913235</v>
       </c>
       <c r="O9" t="n">
-        <v>6.226843649554637</v>
+        <v>6.226843649554887</v>
       </c>
       <c r="P9" t="n">
-        <v>4.997590997000937</v>
+        <v>4.997590997001137</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.340757232227371</v>
+        <v>3.340757232227505</v>
       </c>
       <c r="R9" t="n">
-        <v>1.624923013311252</v>
+        <v>1.624923013311317</v>
       </c>
       <c r="S9" t="n">
-        <v>0.4861224188593631</v>
+        <v>0.4861224188593827</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1054891388268606</v>
+        <v>0.1054891388268649</v>
       </c>
       <c r="U9" t="n">
-        <v>0.001721803136455833</v>
+        <v>0.001721803136455903</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02194122903942624</v>
+        <v>0.02194122903942712</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1950774727323534</v>
+        <v>0.1950774727323613</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6598325969311093</v>
+        <v>0.6598325969311357</v>
       </c>
       <c r="J10" t="n">
-        <v>1.551244893087435</v>
+        <v>1.551244893087497</v>
       </c>
       <c r="K10" t="n">
-        <v>2.549171882944248</v>
+        <v>2.54917188294435</v>
       </c>
       <c r="L10" t="n">
-        <v>3.262062361007061</v>
+        <v>3.262062361007192</v>
       </c>
       <c r="M10" t="n">
-        <v>3.439387384789332</v>
+        <v>3.43938738478947</v>
       </c>
       <c r="N10" t="n">
-        <v>3.357606440187837</v>
+        <v>3.357606440187972</v>
       </c>
       <c r="O10" t="n">
-        <v>3.10129299186363</v>
+        <v>3.101292991863754</v>
       </c>
       <c r="P10" t="n">
-        <v>2.653691919459332</v>
+        <v>2.653691919459439</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.837278733474137</v>
+        <v>1.837278733474211</v>
       </c>
       <c r="R10" t="n">
-        <v>0.9865574439000195</v>
+        <v>0.9865574439000591</v>
       </c>
       <c r="S10" t="n">
-        <v>0.3823757824416371</v>
+        <v>0.3823757824416525</v>
       </c>
       <c r="T10" t="n">
-        <v>0.09374888771391209</v>
+        <v>0.09374888771391585</v>
       </c>
       <c r="U10" t="n">
-        <v>0.001196794311241433</v>
+        <v>0.001196794311241481</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31759,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31911,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953987</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N20" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752254</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J22" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802168</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32789,7 +32789,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -33032,7 +33032,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233472</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837925</v>
@@ -34366,7 +34366,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953992</v>
       </c>
       <c r="K44" t="n">
         <v>557.281137600381</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K13" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L13" t="n">
         <v>366.7325087887907</v>
@@ -35580,7 +35580,7 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O13" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P13" t="n">
         <v>281.932207763703</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,31 +36039,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8924485275279</v>
+        <v>73.85403729409572</v>
       </c>
       <c r="K19" t="n">
-        <v>161.2157552034226</v>
+        <v>193.2541664368522</v>
       </c>
       <c r="L19" t="n">
-        <v>251.2329438658287</v>
+        <v>251.2329438658289</v>
       </c>
       <c r="M19" t="n">
-        <v>263.0739917212232</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N19" t="n">
-        <v>266.9895025602633</v>
+        <v>266.9895025602635</v>
       </c>
       <c r="O19" t="n">
-        <v>139.3114638567573</v>
+        <v>233.2617370939425</v>
       </c>
       <c r="P19" t="n">
-        <v>193.9007810682543</v>
+        <v>193.9007810682545</v>
       </c>
       <c r="Q19" t="n">
-        <v>107.0015533973272</v>
+        <v>107.0015533973274</v>
       </c>
       <c r="R19" t="n">
-        <v>5.018120567137714</v>
+        <v>5.018120567137842</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N20" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193715</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,31 +36276,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>105.8924485275279</v>
+        <v>105.8924485275281</v>
       </c>
       <c r="K22" t="n">
-        <v>193.254166436852</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L22" t="n">
-        <v>251.2329438658286</v>
+        <v>251.2329438658289</v>
       </c>
       <c r="M22" t="n">
-        <v>263.0739917212231</v>
+        <v>263.0739917212234</v>
       </c>
       <c r="N22" t="n">
-        <v>266.9895025602632</v>
+        <v>266.9895025602635</v>
       </c>
       <c r="O22" t="n">
-        <v>139.3114638567572</v>
+        <v>233.2617370939425</v>
       </c>
       <c r="P22" t="n">
-        <v>193.9007810682543</v>
+        <v>193.9007810682546</v>
       </c>
       <c r="Q22" t="n">
-        <v>74.96314216389788</v>
+        <v>74.96314216389445</v>
       </c>
       <c r="R22" t="n">
-        <v>5.018120567137686</v>
+        <v>5.018120567137856</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36361,7 +36361,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>466.3616088479861</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
@@ -36373,7 +36373,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>409.5334806750245</v>
       </c>
       <c r="Q23" t="n">
         <v>250.7943048037195</v>
@@ -36437,7 +36437,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
@@ -36513,31 +36513,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>105.8924485275279</v>
+        <v>105.8924485275281</v>
       </c>
       <c r="K25" t="n">
-        <v>193.2541664368521</v>
+        <v>193.2541664368522</v>
       </c>
       <c r="L25" t="n">
-        <v>251.2329438658288</v>
+        <v>251.2329438658289</v>
       </c>
       <c r="M25" t="n">
-        <v>263.0739917212233</v>
+        <v>263.0739917212234</v>
       </c>
       <c r="N25" t="n">
-        <v>239.9692118939717</v>
+        <v>234.951091326831</v>
       </c>
       <c r="O25" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P25" t="n">
-        <v>193.9007810682544</v>
+        <v>193.9007810682545</v>
       </c>
       <c r="Q25" t="n">
-        <v>107.0015533973272</v>
+        <v>107.0015533973274</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.018120567137842</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36604,7 +36604,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>563.0733298685653</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
         <v>508.0530008882191</v>
@@ -36616,7 +36616,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>70.38469299787731</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,7 +36680,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013289</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004592</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36762,7 +36762,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>201.5584954243648</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554005</v>
@@ -36847,7 +36847,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>409.5334806750258</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
         <v>250.7943048037195</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -36999,16 +36999,16 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
-        <v>349.3282668412319</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564871</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>201.5584954243648</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554005</v>
@@ -37090,7 +37090,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>70.38469299787867</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37221,34 +37221,34 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.5782182671249743</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>108.872813967306</v>
+        <v>108.8728139673061</v>
       </c>
       <c r="K34" t="n">
-        <v>196.2345318766301</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L34" t="n">
-        <v>254.2133093056068</v>
+        <v>254.2133093056069</v>
       </c>
       <c r="M34" t="n">
-        <v>169.1237184840382</v>
+        <v>262.0804355689675</v>
       </c>
       <c r="N34" t="n">
-        <v>269.9698680000414</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2421025337204</v>
+        <v>236.2421025337205</v>
       </c>
       <c r="P34" t="n">
-        <v>103.3968539788289</v>
+        <v>196.8811465080325</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.9819188371053</v>
+        <v>109.9819188371054</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>7.998486006915869</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37458,22 +37458,22 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.332299818266783</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>97.02317635256185</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K37" t="n">
-        <v>99.30389319966704</v>
+        <v>196.9886134277719</v>
       </c>
       <c r="L37" t="n">
-        <v>157.2826706286437</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M37" t="n">
-        <v>266.8084387121431</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N37" t="n">
-        <v>270.7239495511832</v>
+        <v>250.6999626455064</v>
       </c>
       <c r="O37" t="n">
         <v>236.9961840848622</v>
@@ -37485,7 +37485,7 @@
         <v>110.7360003882471</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>8.752567558057549</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37555,7 +37555,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.05300088822</v>
+        <v>508.0530008882196</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193719</v>
@@ -37695,16 +37695,16 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1.332299818266854</v>
+        <v>1.332299818266783</v>
       </c>
       <c r="J40" t="n">
-        <v>11.94217529034289</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K40" t="n">
         <v>99.30389319966704</v>
       </c>
       <c r="L40" t="n">
-        <v>254.9673908567486</v>
+        <v>242.3636716908626</v>
       </c>
       <c r="M40" t="n">
         <v>266.8084387121431</v>
@@ -37713,13 +37713,13 @@
         <v>270.7239495511832</v>
       </c>
       <c r="O40" t="n">
-        <v>236.9961840848623</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P40" t="n">
-        <v>197.6352280591743</v>
+        <v>197.6352280591742</v>
       </c>
       <c r="Q40" t="n">
-        <v>98.13228122235995</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554008</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
@@ -37932,34 +37932,34 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1.332299818266797</v>
+        <v>1.332299818266868</v>
       </c>
       <c r="J43" t="n">
-        <v>109.6268955184478</v>
+        <v>109.6268955184479</v>
       </c>
       <c r="K43" t="n">
-        <v>99.30389319966704</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L43" t="n">
-        <v>157.2826706286437</v>
+        <v>254.9673908567487</v>
       </c>
       <c r="M43" t="n">
-        <v>266.8084387121431</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N43" t="n">
-        <v>249.3676628272391</v>
+        <v>249.3676628272378</v>
       </c>
       <c r="O43" t="n">
-        <v>236.9961840848622</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P43" t="n">
-        <v>197.6352280591742</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q43" t="n">
-        <v>110.7360003882471</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R43" t="n">
-        <v>8.752567558057564</v>
+        <v>8.752567558057635</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687129</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>
@@ -38169,34 +38169,34 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1.332299818266854</v>
       </c>
       <c r="J46" t="n">
         <v>109.6268955184478</v>
       </c>
       <c r="K46" t="n">
-        <v>196.988613427772</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L46" t="n">
-        <v>254.9673908567486</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M46" t="n">
         <v>266.8084387121431</v>
       </c>
       <c r="N46" t="n">
-        <v>173.0392293230783</v>
+        <v>270.7239495511832</v>
       </c>
       <c r="O46" t="n">
-        <v>236.9961840848622</v>
+        <v>215.6398973609174</v>
       </c>
       <c r="P46" t="n">
-        <v>99.95050783106933</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q46" t="n">
-        <v>99.46458104062742</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>8.752567558057621</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
